--- a/report_stats/Micro_Sim_Map2_Stats/FINAL/10.xlsx
+++ b/report_stats/Micro_Sim_Map2_Stats/FINAL/10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,291 +395,869 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.160361796801893</v>
+        <v>0.2934010905953479</v>
       </c>
       <c r="B2" t="n">
-        <v>6.888076515542589</v>
+        <v>6.990905753592166</v>
       </c>
       <c r="C2" t="n">
-        <v>3.418972283833372</v>
+        <v>0.119301403291717</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22376217800047</v>
+        <v>1.269053601999985</v>
       </c>
       <c r="E2" t="n">
-        <v>1.22376217800047</v>
+        <v>1.269053601999985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.051332336326098</v>
+        <v>0.3795090533766234</v>
       </c>
       <c r="B3" t="n">
-        <v>5.808305949714526</v>
+        <v>0.1639681069356165</v>
       </c>
       <c r="C3" t="n">
-        <v>3.198700978741812</v>
+        <v>0.3064221023016429</v>
       </c>
       <c r="D3" t="n">
-        <v>2.443517365000844</v>
+        <v>2.575018945999545</v>
       </c>
       <c r="E3" t="n">
-        <v>1.219755187000374</v>
+        <v>1.30596534399956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9337908024037715</v>
+        <v>0.3055988711039976</v>
       </c>
       <c r="B4" t="n">
-        <v>4.413593839501245</v>
+        <v>0.05540873482033071</v>
       </c>
       <c r="C4" t="n">
-        <v>3.176435191398093</v>
+        <v>0.05600389666448824</v>
       </c>
       <c r="D4" t="n">
-        <v>3.673927117000858</v>
+        <v>3.851235544998417</v>
       </c>
       <c r="E4" t="n">
-        <v>1.230409752000014</v>
+        <v>1.276216598998872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9566766713208645</v>
+        <v>0.1907436604930171</v>
       </c>
       <c r="B5" t="n">
-        <v>2.426480191481478</v>
+        <v>0.02876381727337751</v>
       </c>
       <c r="C5" t="n">
-        <v>3.182799105694778</v>
+        <v>0.0494160046497738</v>
       </c>
       <c r="D5" t="n">
-        <v>4.880796066001494</v>
+        <v>5.136538667999048</v>
       </c>
       <c r="E5" t="n">
-        <v>1.206868949000636</v>
+        <v>1.285303123000631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9663245039608577</v>
+        <v>0.113365492212405</v>
       </c>
       <c r="B6" t="n">
-        <v>1.647827949857367</v>
+        <v>0.03369068623153915</v>
       </c>
       <c r="C6" t="n">
-        <v>3.352093817204006</v>
+        <v>0.02822691013570466</v>
       </c>
       <c r="D6" t="n">
-        <v>6.085757920001925</v>
+        <v>6.376416054999936</v>
       </c>
       <c r="E6" t="n">
-        <v>1.20496185400043</v>
+        <v>1.239877387000888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9108989120382216</v>
+        <v>0.06199051667743416</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9035129906144412</v>
+        <v>0.0308601247170941</v>
       </c>
       <c r="C7" t="n">
-        <v>3.571722918918111</v>
+        <v>0.004286441945875685</v>
       </c>
       <c r="D7" t="n">
-        <v>7.327771196001777</v>
+        <v>7.631539562999023</v>
       </c>
       <c r="E7" t="n">
-        <v>1.242013275999852</v>
+        <v>1.255123507999087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.770265254419539</v>
+        <v>0.05311474522440562</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6650917116887722</v>
+        <v>0.03320990644012145</v>
       </c>
       <c r="C8" t="n">
-        <v>3.985596419414983</v>
+        <v>0.02246679172842025</v>
       </c>
       <c r="D8" t="n">
-        <v>8.557939021001403</v>
+        <v>8.892109935999542</v>
       </c>
       <c r="E8" t="n">
-        <v>1.230167824999626</v>
+        <v>1.260570373000519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.075979029837562</v>
+        <v>0.02519758471765998</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1283286935549706</v>
+        <v>0.08719973783059576</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04315604408715235</v>
+        <v>0.0248308725501456</v>
       </c>
       <c r="D9" t="n">
-        <v>9.801463057001456</v>
+        <v>10.16258340999957</v>
       </c>
       <c r="E9" t="n">
-        <v>1.243524036000053</v>
+        <v>1.270473474000028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04060456088509068</v>
+        <v>0.01609482179860344</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1025113675793881</v>
+        <v>0.05065900888070995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004031316959451914</v>
+        <v>0.005822401342046923</v>
       </c>
       <c r="D10" t="n">
-        <v>11.02722332000121</v>
+        <v>11.53027178699995</v>
       </c>
       <c r="E10" t="n">
-        <v>1.225760262999756</v>
+        <v>1.367688377000377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02969459005916741</v>
+        <v>0.01955003160448876</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08682632417637404</v>
+        <v>0.04556169352615136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007292786614290669</v>
+        <v>0.0008389805882911272</v>
       </c>
       <c r="D11" t="n">
-        <v>12.25059451900051</v>
+        <v>12.77799762500035</v>
       </c>
       <c r="E11" t="n">
-        <v>1.223371198999303</v>
+        <v>1.247725838000406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03580246301193246</v>
+        <v>0.02129402604261532</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08138290087766098</v>
+        <v>0.04852879523212028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008282900753839861</v>
+        <v>0.005093614647356359</v>
       </c>
       <c r="D12" t="n">
-        <v>13.46412871200027</v>
+        <v>14.03943479900045</v>
       </c>
       <c r="E12" t="n">
-        <v>1.213534192999759</v>
+        <v>1.261437174000093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02760826714597786</v>
+        <v>0.01820556536405871</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07145199299581462</v>
+        <v>0.03246881242811694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009469955361737448</v>
+        <v>0.006428966821454107</v>
       </c>
       <c r="D13" t="n">
-        <v>14.67686811200019</v>
+        <v>15.28487972599942</v>
       </c>
       <c r="E13" t="n">
-        <v>1.212739399999919</v>
+        <v>1.245444926998971</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.001285437810355283</v>
+        <v>0.03146361966513411</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0502575129491174</v>
+        <v>0.02880174837366489</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05363527491258679</v>
+        <v>0.04079257084545795</v>
       </c>
       <c r="D14" t="n">
-        <v>15.78602157800015</v>
+        <v>16.44688213199879</v>
       </c>
       <c r="E14" t="n">
-        <v>1.109153465999952</v>
+        <v>1.162002405999374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02279066622834547</v>
+        <v>0.01812394505299242</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03543516042061812</v>
+        <v>0.006441644932446144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0178427515006252</v>
+        <v>0.01633430414749725</v>
       </c>
       <c r="D15" t="n">
-        <v>16.89788389700061</v>
+        <v>17.60422752799786</v>
       </c>
       <c r="E15" t="n">
-        <v>1.111862319000466</v>
+        <v>1.157345395999073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01773568107246226</v>
+        <v>0.04107918750030581</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03722406370848064</v>
+        <v>0.01642980440447839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02251337703128264</v>
+        <v>0.01373528901855598</v>
       </c>
       <c r="D16" t="n">
-        <v>17.97682355800043</v>
+        <v>18.74904584999786</v>
       </c>
       <c r="E16" t="n">
-        <v>1.078939660999822</v>
+        <v>1.144818321999992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05158112679243176</v>
+        <v>0.06251679934114529</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0364035951899534</v>
+        <v>0.004289471156078806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01049844133914046</v>
+        <v>0.0001458426514400399</v>
       </c>
       <c r="D17" t="n">
-        <v>19.05410587700044</v>
+        <v>19.92567678799787</v>
       </c>
       <c r="E17" t="n">
-        <v>1.077282319000005</v>
+        <v>1.176630938000017</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.003732153025279406</v>
+        <v>0.02590413833229865</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002582627906388302</v>
+        <v>0.02591345528071098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002671828640004037</v>
+        <v>0.0039825316868528</v>
       </c>
       <c r="D18" t="n">
-        <v>20.12202112200066</v>
+        <v>21.04630614599773</v>
       </c>
       <c r="E18" t="n">
-        <v>1.067915245000222</v>
+        <v>1.12062935799986</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.01287690738950786</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01099065540758937</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.004169917284420737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22.15616284099815</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.109856695000417</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.004778632786644366</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.006666028550867953</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01196539750697779</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23.3266158089973</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.170452967999154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.00599422381384862</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.007298464003521965</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.009110569307874286</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24.49420510999698</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.16758930099968</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.00599422381384862</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.007298464003521965</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.009110569307874286</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24.60184805099743</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1076429410004494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.01827877182315429</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.005689248035024352</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02908899281683763</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.64986446099647</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.048016409999036</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.02005189075250513</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02540264513254775</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.002910628354966471</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26.75750430999506</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.107639848998588</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.05039067868247304</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03569500257925284</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002823087103222433</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27.79685959399649</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.039355284001431</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.08962066034038063</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0279006749629005</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03655361494377996</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28.82688143599626</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.030021841999769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.07364064092713196</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.05319295786777367</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.004210798781357106</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29.88598860399543</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.059107167999173</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.05192515454884283</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08237234899344603</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.003150074310462436</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30.94193681899378</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.055948214998352</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.03452463249998416</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1019677763071511</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001447095920869224</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32.02432633499302</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.082389515999239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.02226525719067851</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0683286078849008</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.004501025946179738</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33.10565677599334</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.081330441000318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.006602350588969408</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05227412442973822</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01480314763053769</v>
+      </c>
+      <c r="D31" t="n">
+        <v>34.17133876899243</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.065681992999089</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.01355693191396146</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01543777873565055</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02622428521732978</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.14567087199248</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9743321030000516</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.01661657648376291</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04193746311156854</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01925755508665539</v>
+      </c>
+      <c r="D33" t="n">
+        <v>36.08954892899419</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9438780570017116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.01286517519054442</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.06187544909551423</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.005423549503220215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>37.02798743199492</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9384385030007252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.01239001827126085</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.006138652334632511</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02015996501916639</v>
+      </c>
+      <c r="D35" t="n">
+        <v>37.92485921699517</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8968717850002577</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.02462176614554146</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.03927205229634678</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01030345731609827</v>
+      </c>
+      <c r="D36" t="n">
+        <v>38.85260066699448</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9277414499993029</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.04475562471899419</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.08418014328282997</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01237898675240601</v>
+      </c>
+      <c r="D37" t="n">
+        <v>39.76224596299471</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9096452960002352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.0450636295147171</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.07431226477734754</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001467001346147967</v>
+      </c>
+      <c r="D38" t="n">
+        <v>40.67656583899588</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9143198760011728</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.05918305634827492</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.05880342397674743</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01375528328573061</v>
+      </c>
+      <c r="D39" t="n">
+        <v>41.56637314199543</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.889807302999543</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.02854408272561115</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.07562809188971076</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01981037610982028</v>
+      </c>
+      <c r="D40" t="n">
+        <v>42.4753493259941</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.908976183998675</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.01576077189302239</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01452431791125042</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01076086045544811</v>
+      </c>
+      <c r="D41" t="n">
+        <v>43.37830010399375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9029507779996493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.007765683944541135</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.02392426851795548</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0192498564765311</v>
+      </c>
+      <c r="D42" t="n">
+        <v>44.3349192369933</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.956619132999549</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.0001745858455605154</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.08284749693231053</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02485801357931861</v>
+      </c>
+      <c r="D43" t="n">
+        <v>45.23830544199336</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9033862050000607</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.009019681072836794</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.06278240199320528</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02530469616335895</v>
+      </c>
+      <c r="D44" t="n">
+        <v>46.11049452199404</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8721890800006804</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.004412332378127659</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.07798222971315916</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02457725021562118</v>
+      </c>
+      <c r="D45" t="n">
+        <v>46.99604852399534</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8855540020012995</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.004462310511341938</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08350508997735151</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.02064369311841951</v>
+      </c>
+      <c r="D46" t="n">
+        <v>47.93234504799511</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.936296523999772</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.01991911256220757</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.08143505677048957</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02123099126682226</v>
+      </c>
+      <c r="D47" t="n">
+        <v>48.8809563079958</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9486112600006891</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.002803451600315254</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.02365428836788119</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02492634490884771</v>
+      </c>
+      <c r="D48" t="n">
+        <v>49.82047136399524</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9395150559994363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.02179922623905162</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.003459460760364408</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01524121990392913</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50.75143232099435</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9309609569991153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0145824020982821</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.009726464453876815</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01381770840689045</v>
+      </c>
+      <c r="D50" t="n">
+        <v>51.60098206599469</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8495497450003313</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.03482234528016193</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.02152702867141443</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01335002227728888</v>
+      </c>
+      <c r="D51" t="n">
+        <v>52.47038127599444</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8693992099997558</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.03409440061779467</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.02771864715054662</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005458969663925339</v>
+      </c>
+      <c r="D52" t="n">
+        <v>53.22612586899413</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7557445929996902</v>
       </c>
     </row>
   </sheetData>
